--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/150.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/150.xlsx
@@ -479,13 +479,13 @@
         <v>0.04562430511101247</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.905035733528466</v>
+        <v>-1.783164433504053</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09903552692353526</v>
+        <v>0.04244037740740621</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1096622508807012</v>
+        <v>-0.09120605120230499</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.05469091547441186</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.048331107244331</v>
+        <v>-1.920636894519005</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04883844530649334</v>
+        <v>-0.02132316982254276</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1020894757581973</v>
+        <v>-0.07144279151363767</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.06543635764725042</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.172199287564418</v>
+        <v>-2.058528371038882</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02488015120315288</v>
+        <v>-0.04944234278265847</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1176180561882029</v>
+        <v>-0.09430688792289212</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.07417929535014946</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.22290077358113</v>
+        <v>-2.081593131350787</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03617771189855715</v>
+        <v>-0.05339279900595564</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1377991115404426</v>
+        <v>-0.09596831184635382</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.07833971805718669</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.146483811991366</v>
+        <v>-2.041729935759887</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03759760723402664</v>
+        <v>-0.02865319651570091</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1425516134536635</v>
+        <v>-0.1020687384551879</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.07634865904958374</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.870513613303849</v>
+        <v>-1.791237953502167</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1569816507386612</v>
+        <v>0.09548456874350807</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1458744613005869</v>
+        <v>-0.1083655595219349</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.06855807231129864</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.530504183240493</v>
+        <v>-1.442875659770746</v>
       </c>
       <c r="F8" t="n">
-        <v>0.217898698170227</v>
+        <v>0.1752188888941049</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1260636277991332</v>
+        <v>-0.08045497943326697</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.05602486511400945</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.134547949340391</v>
+        <v>-1.053570000929905</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2534442652904271</v>
+        <v>0.2439532896395506</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1095140401562514</v>
+        <v>-0.06285998775043899</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.04080191355609016</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.6593874163577863</v>
+        <v>-0.5707171483721537</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2631316353992165</v>
+        <v>0.2516785449312415</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.07138362920799311</v>
+        <v>-0.03145639194603499</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.0270583594532958</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.07147694707153555</v>
+        <v>0.05107746411083546</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2302343438574565</v>
+        <v>0.1824397397861252</v>
       </c>
       <c r="G11" t="n">
-        <v>0.001610457543860971</v>
+        <v>0.04710993010858935</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.02100476974786781</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5149215288570568</v>
+        <v>0.6483782721362993</v>
       </c>
       <c r="F12" t="n">
-        <v>0.07241370922483603</v>
+        <v>0.02686361324393756</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05683877482339762</v>
+        <v>0.09237702289547671</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.02905256913301563</v>
       </c>
       <c r="E13" t="n">
-        <v>1.102663660036525</v>
+        <v>1.276398344966856</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.06023183955433162</v>
+        <v>-0.1313742071315786</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1647770469081782</v>
+        <v>0.2000469298824881</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.05620371315825406</v>
       </c>
       <c r="E14" t="n">
-        <v>1.713132045552303</v>
+        <v>1.911184267864579</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.2604773366201935</v>
+        <v>-0.3477277092703567</v>
       </c>
       <c r="G14" t="n">
-        <v>0.266037907423921</v>
+        <v>0.3158543985386721</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.106234645799663</v>
       </c>
       <c r="E15" t="n">
-        <v>2.341248485849786</v>
+        <v>2.566186011593116</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.5467692229203179</v>
+        <v>-0.6409830599369137</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3795069402054529</v>
+        <v>0.4524058793317343</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.180785018822853</v>
       </c>
       <c r="E16" t="n">
-        <v>2.867481946541242</v>
+        <v>3.124642801478526</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.7984737274834135</v>
+        <v>-0.9623697819771213</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4905497085348811</v>
+        <v>0.5806673182864369</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.2790258557714645</v>
       </c>
       <c r="E17" t="n">
-        <v>3.387275864727593</v>
+        <v>3.669054338019782</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.099634869961979</v>
+        <v>-1.305351355498271</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5976237230207097</v>
+        <v>0.6941680669431598</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.3975449617944296</v>
       </c>
       <c r="E18" t="n">
-        <v>3.83247770398901</v>
+        <v>4.120870157099855</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.433681105568769</v>
+        <v>-1.659968385769743</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7482729103361265</v>
+        <v>0.8565344403795836</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.530189786265277</v>
       </c>
       <c r="E19" t="n">
-        <v>4.235358367332233</v>
+        <v>4.523581262494941</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.756084565377116</v>
+        <v>-2.030270136164468</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9005493660171071</v>
+        <v>1.012612531638735</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.6694665130296302</v>
       </c>
       <c r="E20" t="n">
-        <v>4.60260258537442</v>
+        <v>4.883122182389801</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.057696439235798</v>
+        <v>-2.337995244966196</v>
       </c>
       <c r="G20" t="n">
-        <v>1.042795676168966</v>
+        <v>1.142472572687194</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.8065241690409706</v>
       </c>
       <c r="E21" t="n">
-        <v>4.823929380711402</v>
+        <v>5.114432159363795</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.346375555064714</v>
+        <v>-2.667071846898843</v>
       </c>
       <c r="G21" t="n">
-        <v>1.163892376933909</v>
+        <v>1.273770806691425</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.9318979893928314</v>
       </c>
       <c r="E22" t="n">
-        <v>5.023562517417809</v>
+        <v>5.322226034725091</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.648977330181758</v>
+        <v>-2.935729706592828</v>
       </c>
       <c r="G22" t="n">
-        <v>1.313388814170272</v>
+        <v>1.429405485618581</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.03588045962795</v>
       </c>
       <c r="E23" t="n">
-        <v>5.141748066792633</v>
+        <v>5.427500783214512</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.951042375103265</v>
+        <v>-3.174388312840621</v>
       </c>
       <c r="G23" t="n">
-        <v>1.422319427196122</v>
+        <v>1.523852922254371</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.110176543286898</v>
       </c>
       <c r="E24" t="n">
-        <v>5.23244327142507</v>
+        <v>5.52127730710588</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.153455225293951</v>
+        <v>-3.353572943978034</v>
       </c>
       <c r="G24" t="n">
-        <v>1.53803418790944</v>
+        <v>1.624783205763316</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.149149446153257</v>
       </c>
       <c r="E25" t="n">
-        <v>5.277690846750301</v>
+        <v>5.555967155516602</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.297964646116883</v>
+        <v>-3.448149683797295</v>
       </c>
       <c r="G25" t="n">
-        <v>1.596990950285938</v>
+        <v>1.65845814616793</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.151366827401517</v>
       </c>
       <c r="E26" t="n">
-        <v>5.271691666973807</v>
+        <v>5.542750174451472</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.391133689014209</v>
+        <v>-3.464870354190004</v>
       </c>
       <c r="G26" t="n">
-        <v>1.648207819274502</v>
+        <v>1.671654999850728</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.119703531727626</v>
       </c>
       <c r="E27" t="n">
-        <v>5.183542271246117</v>
+        <v>5.457796763069942</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.499570266291893</v>
+        <v>-3.549294049463779</v>
       </c>
       <c r="G27" t="n">
-        <v>1.642858205018745</v>
+        <v>1.668694444885793</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.060324979608186</v>
       </c>
       <c r="E28" t="n">
-        <v>5.100077066315853</v>
+        <v>5.366361114735934</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.516492820428606</v>
+        <v>-3.561951428307993</v>
       </c>
       <c r="G28" t="n">
-        <v>1.638532037658571</v>
+        <v>1.659753617685343</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.9821217680301173</v>
       </c>
       <c r="E29" t="n">
-        <v>4.918206039557703</v>
+        <v>5.191400489245339</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.495836941829518</v>
+        <v>-3.519005083696132</v>
       </c>
       <c r="G29" t="n">
-        <v>1.598707876990983</v>
+        <v>1.627397935704535</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.8942348250726707</v>
       </c>
       <c r="E30" t="n">
-        <v>4.780105360245701</v>
+        <v>5.06945538881904</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.388070362415242</v>
+        <v>-3.432446971014077</v>
       </c>
       <c r="G30" t="n">
-        <v>1.545454482862757</v>
+        <v>1.565102467543519</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.8054412354696068</v>
       </c>
       <c r="E31" t="n">
-        <v>4.577327472529981</v>
+        <v>4.841119385064869</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.323292212139523</v>
+        <v>-3.377223838060293</v>
       </c>
       <c r="G31" t="n">
-        <v>1.456503041445143</v>
+        <v>1.475291647892367</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.7228500262221544</v>
       </c>
       <c r="E32" t="n">
-        <v>4.331248876289209</v>
+        <v>4.635650527323337</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.186395211283083</v>
+        <v>-3.266113978456423</v>
       </c>
       <c r="G32" t="n">
-        <v>1.405854618527308</v>
+        <v>1.454409793682544</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.6510096572276887</v>
       </c>
       <c r="E33" t="n">
-        <v>4.075716509558843</v>
+        <v>4.415200797919518</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.063107980407599</v>
+        <v>-3.127819954289891</v>
       </c>
       <c r="G33" t="n">
-        <v>1.290416761801233</v>
+        <v>1.360712559479154</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.591145800665683</v>
       </c>
       <c r="E34" t="n">
-        <v>3.749754162601671</v>
+        <v>4.139725244900845</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.809670691201863</v>
+        <v>-2.95777650929524</v>
       </c>
       <c r="G34" t="n">
-        <v>1.160111478658748</v>
+        <v>1.266872603837405</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.541754811530996</v>
       </c>
       <c r="E35" t="n">
-        <v>3.490085313841599</v>
+        <v>3.856225575458873</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.697785012497168</v>
+        <v>-2.83403275279321</v>
       </c>
       <c r="G35" t="n">
-        <v>1.071472926548306</v>
+        <v>1.173838963330317</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.5002975407309729</v>
       </c>
       <c r="E36" t="n">
-        <v>3.187868398671583</v>
+        <v>3.596474997328117</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.556460292487876</v>
+        <v>-2.72382496587025</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9919819647477318</v>
+        <v>1.100829018640867</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.4631548027980448</v>
       </c>
       <c r="E37" t="n">
-        <v>2.895044261923487</v>
+        <v>3.272749839413257</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.431236258503378</v>
+        <v>-2.60739781780649</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8972722622209398</v>
+        <v>0.9762063664436432</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.4285448420512726</v>
       </c>
       <c r="E38" t="n">
-        <v>2.625148263255704</v>
+        <v>2.978801008937237</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.301289608718821</v>
+        <v>-2.49376715604562</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8165895154179997</v>
+        <v>0.9129222168656183</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.3947141055699697</v>
       </c>
       <c r="E39" t="n">
-        <v>2.356159826554922</v>
+        <v>2.70167379072593</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.18520218647201</v>
+        <v>-2.379796768467801</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7106109184676107</v>
+        <v>0.8186522671467616</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.3607320026559329</v>
       </c>
       <c r="E40" t="n">
-        <v>2.097589444933674</v>
+        <v>2.437296354341363</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.115685867418973</v>
+        <v>-2.301564073023358</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6316884027377655</v>
+        <v>0.7532663309166628</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.3265082652095989</v>
       </c>
       <c r="E41" t="n">
-        <v>1.799426672502002</v>
+        <v>2.118034595938945</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.011709640050348</v>
+        <v>-2.212486378025657</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5435749923300038</v>
+        <v>0.6394350052531426</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.29200791865103</v>
       </c>
       <c r="E42" t="n">
-        <v>1.574655045182747</v>
+        <v>1.885353517283622</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.927818100567036</v>
+        <v>-2.119072147016278</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4804750387963567</v>
+        <v>0.5990356893873815</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.2575600442267132</v>
       </c>
       <c r="E43" t="n">
-        <v>1.329987195467294</v>
+        <v>1.634063758780715</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.826820115862972</v>
+        <v>-2.022142333226123</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4145499326880126</v>
+        <v>0.5293693298478648</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.2239062779338494</v>
       </c>
       <c r="E44" t="n">
-        <v>1.149992894631498</v>
+        <v>1.455965091408252</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.742716323984152</v>
+        <v>-1.90581155262929</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3763109558592931</v>
+        <v>0.4638699483718908</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.1916105069010575</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9525591318854443</v>
+        <v>1.257446279778264</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.678157440191723</v>
+        <v>-1.81819095812834</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3079162809307961</v>
+        <v>0.4072845575865898</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.1614011242506664</v>
       </c>
       <c r="E46" t="n">
-        <v>0.7875700995390039</v>
+        <v>1.090426211578252</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.62810125025101</v>
+        <v>-1.745406074168611</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2221413063976865</v>
+        <v>0.3097521421678078</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.13377545897315</v>
       </c>
       <c r="E47" t="n">
-        <v>0.6162336227096464</v>
+        <v>0.8916768499324531</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.561877892931737</v>
+        <v>-1.664592804340847</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1579032408812276</v>
+        <v>0.2544091598010425</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.1093495529839615</v>
       </c>
       <c r="E48" t="n">
-        <v>0.4690676923791378</v>
+        <v>0.7386434826916282</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.448156962910708</v>
+        <v>-1.567659331026631</v>
       </c>
       <c r="G48" t="n">
-        <v>0.07268634376734241</v>
+        <v>0.1793730586234359</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.08829402802725569</v>
       </c>
       <c r="E49" t="n">
-        <v>0.3557017361919763</v>
+        <v>0.6247346971021609</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.352497003969542</v>
+        <v>-1.44962138245558</v>
       </c>
       <c r="G49" t="n">
-        <v>0.05457352942995533</v>
+        <v>0.1351775964655949</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.07088769481729422</v>
       </c>
       <c r="E50" t="n">
-        <v>0.266817386048805</v>
+        <v>0.5030805288386699</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.248188979752766</v>
+        <v>-1.332878905401941</v>
       </c>
       <c r="G50" t="n">
-        <v>0.004245924788089329</v>
+        <v>0.08533426884106689</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.05742960874758625</v>
       </c>
       <c r="E51" t="n">
-        <v>0.1287752591217706</v>
+        <v>0.3657617678342587</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.149841710309849</v>
+        <v>-1.274724798636044</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.02861904095780303</v>
+        <v>0.03972318079249362</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.04755557360943513</v>
       </c>
       <c r="E52" t="n">
-        <v>0.06692625289613374</v>
+        <v>0.2707074601251042</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.083507347427407</v>
+        <v>-1.204222237848706</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.07494495603952502</v>
+        <v>0.001784284936734167</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.04109211080869345</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.05105131352791985</v>
+        <v>0.1594762263065608</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.011469616296693</v>
+        <v>-1.1396889707247</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.1296993649532284</v>
+        <v>-0.04267039350872479</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.03764242002588874</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.1774537142598944</v>
+        <v>0.06233659980360461</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.9434970064765063</v>
+        <v>-1.045775824601741</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.2012534289872803</v>
+        <v>-0.122312005716456</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.0365388261780564</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.2340427645692559</v>
+        <v>-0.01274280574205108</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.9184798900783311</v>
+        <v>-1.044511459038843</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.2055637384098589</v>
+        <v>-0.1359388534763611</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.0369240029927885</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.3171871512235512</v>
+        <v>-0.05955421768246452</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.8649129967222562</v>
+        <v>-1.010441899956373</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.2687771371893811</v>
+        <v>-0.1970480259211025</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.0376987150645844</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.3963694931616911</v>
+        <v>-0.1619653885945542</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.8458480962084653</v>
+        <v>-0.9780734096413536</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.2920267034663403</v>
+        <v>-0.2242907428687312</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.03766052552592593</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.4912444841918817</v>
+        <v>-0.2590464627125426</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.7906027011499798</v>
+        <v>-0.9503653232173661</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.3302760489465645</v>
+        <v>-0.2616142287616519</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.03599352382409883</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.5757294764936692</v>
+        <v>-0.3600115117000626</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.8017032574667944</v>
+        <v>-0.943165819549032</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.34158275845212</v>
+        <v>-0.2877749464287296</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.03155639052265299</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.7330658341089518</v>
+        <v>-0.4672233682588362</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.8338546160208916</v>
+        <v>-0.9527830487799954</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.3725453816072352</v>
+        <v>-0.3371870601347968</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.02382305745322926</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.8684377283131832</v>
+        <v>-0.5746633351507137</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.8412547835918758</v>
+        <v>-0.9670551926158999</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.4149665845164161</v>
+        <v>-0.3752235432988359</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.01221289609430237</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.9495096045078886</v>
+        <v>-0.6395113213439206</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.8214976231099759</v>
+        <v>-0.9643178686186546</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.4477187149371101</v>
+        <v>-0.4008536299771428</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.003236774115705384</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.050420980475855</v>
+        <v>-0.7430721927316803</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.8638114799800491</v>
+        <v>-0.9821013257905977</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.4767381308161059</v>
+        <v>-0.4510702290558407</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.02275291577292222</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.128191356047323</v>
+        <v>-0.7714231355489604</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.886079073967444</v>
+        <v>-1.006936685827102</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.5019235853210635</v>
+        <v>-0.482683637573046</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.04593252897282583</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.207011405103474</v>
+        <v>-0.8448313584403263</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.9208232053183971</v>
+        <v>-1.046260711539756</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.5178016502988456</v>
+        <v>-0.4946685788711453</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.07294542085260551</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.255034729428586</v>
+        <v>-0.8824329681618441</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.9395904645419348</v>
+        <v>-1.092543322253429</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.5562284826960036</v>
+        <v>-0.5221119597214242</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.1032749946691949</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.303991232389123</v>
+        <v>-0.9140738231095031</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.9937392222236274</v>
+        <v>-1.153227379986477</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.5924821677219081</v>
+        <v>-0.5528141467475679</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.1365548847658953</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.351094796333698</v>
+        <v>-0.9658249826108991</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.015403604661719</v>
+        <v>-1.166806044012919</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.6095160323821279</v>
+        <v>-0.5713532956380019</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.1724937797873714</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.359448879843117</v>
+        <v>-0.9705061238049405</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.080185719421837</v>
+        <v>-1.209348011216096</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.6103894387912311</v>
+        <v>-0.5837810393474203</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.2095873759803309</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.368973401131214</v>
+        <v>-0.9641763670216491</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.081191478617794</v>
+        <v>-1.231514968291828</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.6312072513299958</v>
+        <v>-0.593458040804705</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.2472175619090537</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.369844977778287</v>
+        <v>-0.9584290844846521</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.124343976418396</v>
+        <v>-1.269838114173938</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.6292634341331997</v>
+        <v>-0.5966784219779347</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.2842253249371808</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.367431521660395</v>
+        <v>-0.9637305150069463</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.218843866232387</v>
+        <v>-1.333314998685816</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.6474665167307455</v>
+        <v>-0.625820431912957</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.3196546136514092</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.282784900379269</v>
+        <v>-0.9025530314464091</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.278240991337496</v>
+        <v>-1.403058208230603</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.6635086503705729</v>
+        <v>-0.626202852177278</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.3527094011376765</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.220054558775732</v>
+        <v>-0.8319663016056795</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.328862577745555</v>
+        <v>-1.449759224528525</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.6778100703989615</v>
+        <v>-0.6382036514129728</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.3829123018542728</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.095828355018394</v>
+        <v>-0.6981667829061046</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.362498483226857</v>
+        <v>-1.492597613180601</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.6751282491833002</v>
+        <v>-0.6226775106656742</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.4095529578821297</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.9468241237681668</v>
+        <v>-0.5697485943374777</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.394152146508727</v>
+        <v>-1.496166259060254</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.6241260722729509</v>
+        <v>-0.5976341676783989</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.4324246584671181</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.8242227486936863</v>
+        <v>-0.4660163352395518</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.435167482258004</v>
+        <v>-1.529846078830282</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.603366812119154</v>
+        <v>-0.5545109460702811</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.4510157932545907</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.6478318592161176</v>
+        <v>-0.2790780874989791</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.492796447321221</v>
+        <v>-1.564341362545122</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.5471967773147183</v>
+        <v>-0.5417794618638421</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.465092293376572</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.446014596566276</v>
+        <v>-0.0892213693201668</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.497884405606653</v>
+        <v>-1.581925985576445</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.4928223489826289</v>
+        <v>-0.4725790817213609</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.4743405368947529</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.2421711774282773</v>
+        <v>0.08323065242696283</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.595545514288229</v>
+        <v>-1.619491609978035</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.4565607349879267</v>
+        <v>-0.474433240578675</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.478459227965359</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.003126796352441195</v>
+        <v>0.2759308208007745</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.592345870418009</v>
+        <v>-1.60314329615848</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.429930378399753</v>
+        <v>-0.4441903238221225</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.4775402188980281</v>
       </c>
       <c r="E82" t="n">
-        <v>0.2091780523340833</v>
+        <v>0.4526327698234846</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.627746276417143</v>
+        <v>-1.615564330740454</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.3237980814388234</v>
+        <v>-0.3741409340976081</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.4722653276403657</v>
       </c>
       <c r="E83" t="n">
-        <v>0.4465915055202951</v>
+        <v>0.635463811726836</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.649907134286107</v>
+        <v>-1.59445009675279</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2868618951756378</v>
+        <v>-0.3414607743167704</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.4634479718885858</v>
       </c>
       <c r="E84" t="n">
-        <v>0.7125260693925995</v>
+        <v>0.8610234565604492</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.633519175622563</v>
+        <v>-1.565586820567041</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1980001120975062</v>
+        <v>-0.275783296003186</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.4522454503922638</v>
       </c>
       <c r="E85" t="n">
-        <v>0.9086777788761286</v>
+        <v>1.024034516152196</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.612036549546143</v>
+        <v>-1.483314620480496</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1465533030138075</v>
+        <v>-0.2300300964369305</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.4396666971466915</v>
       </c>
       <c r="E86" t="n">
-        <v>1.128212627264825</v>
+        <v>1.211072180963078</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.540207411286878</v>
+        <v>-1.396639403028506</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.09764864331079473</v>
+        <v>-0.167674246128916</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.4269424610916926</v>
       </c>
       <c r="E87" t="n">
-        <v>1.312560541891248</v>
+        <v>1.370659145875561</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.418544094213236</v>
+        <v>-1.25156611053992</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.02056686818337516</v>
+        <v>-0.1007848554306332</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.4147534415173936</v>
       </c>
       <c r="E88" t="n">
-        <v>1.472324993720665</v>
+        <v>1.520052506517554</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.349769438703125</v>
+        <v>-1.150984701658075</v>
       </c>
       <c r="G88" t="n">
-        <v>0.007582190889901206</v>
+        <v>-0.08790455057906775</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.4040476009349234</v>
       </c>
       <c r="E89" t="n">
-        <v>1.560928170431855</v>
+        <v>1.597915590031888</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.180870814818729</v>
+        <v>-0.9615622470011069</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03350686925507741</v>
+        <v>-0.06351565247794316</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.3952493459987399</v>
       </c>
       <c r="E90" t="n">
-        <v>1.708111788461989</v>
+        <v>1.732373213141674</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.066877860175871</v>
+        <v>-0.8148842532119968</v>
       </c>
       <c r="G90" t="n">
-        <v>0.08665535702690318</v>
+        <v>-0.03061836093618316</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.3889119831538909</v>
       </c>
       <c r="E91" t="n">
-        <v>1.766798965899364</v>
+        <v>1.750020048082025</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.8382826401340825</v>
+        <v>-0.5998890444203365</v>
       </c>
       <c r="G91" t="n">
-        <v>0.09561997113374614</v>
+        <v>-0.01932811928889986</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.3856649741378693</v>
       </c>
       <c r="E92" t="n">
-        <v>1.836831887765607</v>
+        <v>1.823252613818488</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.654451938241541</v>
+        <v>-0.4420793883598975</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1326598439119789</v>
+        <v>0.007335782936494991</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.3851254420665643</v>
       </c>
       <c r="E93" t="n">
-        <v>1.880579058226038</v>
+        <v>1.845437258593845</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.4352043624915934</v>
+        <v>-0.2423504941072412</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1044455233262905</v>
+        <v>-0.01793140093914681</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.3861074103218489</v>
       </c>
       <c r="E94" t="n">
-        <v>1.891514326039454</v>
+        <v>1.815178483899697</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2849522335367396</v>
+        <v>-0.1151051830000009</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03694682187193646</v>
+        <v>-0.06930806914501947</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.3871783366494445</v>
       </c>
       <c r="E95" t="n">
-        <v>1.866366686616455</v>
+        <v>1.769229499796205</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.1323793564068594</v>
+        <v>0.0007870646302510926</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0225325665183496</v>
+        <v>-0.07123297880083634</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.3856128982763408</v>
       </c>
       <c r="E96" t="n">
-        <v>1.841495951180699</v>
+        <v>1.727160831038185</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.01277147201385823</v>
+        <v>0.07247836081657132</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.01366012643988016</v>
+        <v>-0.09462099707141737</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.3801866209173898</v>
       </c>
       <c r="E97" t="n">
-        <v>1.712304383193956</v>
+        <v>1.612670791043777</v>
       </c>
       <c r="F97" t="n">
-        <v>0.07935521644690567</v>
+        <v>0.1285471487886668</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.02814818219535353</v>
+        <v>-0.1043870469475073</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.3685947934389373</v>
       </c>
       <c r="E98" t="n">
-        <v>1.57727831401344</v>
+        <v>1.476343151139081</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1208834954853274</v>
+        <v>0.140404006744649</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.05203816518289821</v>
+        <v>-0.1149624615616418</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.3506254523169269</v>
       </c>
       <c r="E99" t="n">
-        <v>1.422549977211933</v>
+        <v>1.340006972344911</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1637279833441715</v>
+        <v>0.1959659506343669</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.07168188041892291</v>
+        <v>-0.1402485529782628</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.3251259619102873</v>
       </c>
       <c r="E100" t="n">
-        <v>1.244128051880793</v>
+        <v>1.159099620256023</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2064620755605242</v>
+        <v>0.2316835153854099</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.09297543108555111</v>
+        <v>-0.1686482894496827</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2955953270467384</v>
       </c>
       <c r="E101" t="n">
-        <v>1.118367287700757</v>
+        <v>1.034106136287336</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2155285464203841</v>
+        <v>0.2277592857512129</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1207475591805972</v>
+        <v>-0.1839890143112498</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2617253148530372</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9471759719924659</v>
+        <v>0.8727308839506283</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2080228625723225</v>
+        <v>0.2345141572461976</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1275914790943871</v>
+        <v>-0.2005300630646571</v>
       </c>
     </row>
   </sheetData>
